--- a/DOM_Banner/output/dept0713/Tirdad T Zangeneh_2023.xlsx
+++ b/DOM_Banner/output/dept0713/Tirdad T Zangeneh_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Division of Infectious Disease, College of Medicine, University of Arizona, Tucson, Arizona, U.S.A.; Division of Nephrology, Banner University Medical Center, Tucson, Ariz; Division of Hematology and Oncology; Family and Community Medicine; Division of Nephrology, College of Medicine, University of Arizona, Tucson; Division of Infectious Disease, College of Medicine, University of Arizona, Tucson</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4298007826</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>The Prevention of COVID-19 in High-Risk Patients Using Tixagevimab–Cilgavimab (Evusheld): Real-World Experience at a Large Academic Center</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-01-01</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>The American Journal of Medicine</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.amjmed.2022.08.019</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>21</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36181789</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.amjmed.2022.08.019</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, United States of America; Division of Nephrology, The Banner University Medical Center, Tucson, Arizona, United States of America; Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, United States of America; Division of Infectious Diseases, College of Medicine, The University of Arizona, Tucson, Arizona, United States of America; Division of Infectious Diseases, College of Medicine, The University of Arizona, Tucson, Arizona, United States of America; Department of Epidemiology and Biostatistics, College of Public Health, The University of Arizona, Tucson, Arizona, United States of America; Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, United States of America; Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, United States of America; Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, United States of America; Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, United States of America; Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, United States of America; Division of Nephrology, Virginia Commonwealth University, Richmond, Virginia, United States of America; Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, United States of America</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4367309455</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Lack of effectiveness of Bebtelovimab monoclonal antibody among high-risk patients with SARS-Cov-2 Omicron during BA.2, BA.2.12.1 and BA.5 subvariants dominated era</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2023-04-28</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>PLOS ONE</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Public Library of Science</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1371/journal.pone.0279326</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37115780</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1371/journal.pone.0279326</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -611,75 +626,80 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Division of Infectious Diseases, College of Medicine, University of Arizona, Tucson; Division of Nephrology, Banner University Medical Center, Tucson, Arizona; Division of Nephrology, College of Medicine, University of Arizona, Tucson; Division of Nephrology, College of Medicine, University of Arizona, Tucson; Division of Nephrology, College of Medicine, University of Arizona, Tucson; Division of Nephrology, College of Medicine, University of Arizona, Tucson; Division of Nephrology, College of Medicine, University of Arizona, Tucson; Division of Infectious Diseases, College of Medicine, University of Arizona, Tucson</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4323671354</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>The Impact of Nirmatrelvir-Ritonavir in Reducing Hospitalizations Among High-Risk Patients With SARS-CoV-2 During the Omicron Predominant Era</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2023-06-01</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>The American Journal of Medicine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.amjmed.2023.02.022</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36898600</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.amjmed.2023.02.022</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -693,75 +713,80 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>North Mississippi Medical Center, Tupelo, Mississippi, United States; University of Pittsburgh Medical Center, McKeesport, Pennsylvania, United States; TidalHealth, Salisbury, Maryland, United States; King Edward Medical University, Lahore, Pakistan; Rawalpindi Medical University, Rawalpindi, Pakistan; Dow Medical College, Karachi, Pakistan; Allama Iqbal Medical College, Lahore, Pakistan; Rawal Institute of Health Sciences, Islamabad, Pakistan; Division of Infectious Diseases, Department of Medicine, University of Arizona, Tucson, Arizona, United States; Department of Internal Medicine, University of Arizona, Tucson, Arizona, United States</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4360895697</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Pneumocystis jiroveci Pneumonia: A Review of Management in Human Immunodeficiency Virus (HIV) and Non-HIV Immunocompromised Patients</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2023-01-01</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Avicenna Journal of Medicine</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Thieme Medical Publishers (Germany)</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1055/s-0043-1764375</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36969352</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1055/s-0043-1764375</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -775,75 +800,80 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>Banner University Medical Center, University of Arizona, Tirdad Zangeneh, DO, MA, FACP, FIDSA, FAST; Division of Infectious Diseases, Banner University Medical Center, University of Arizona, Tirdad Zangeneh, DO, MA, FACP, FIDSA, FAST, Tucson, USA</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4317932055</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Diagnostic Challenges of Coccidioidomycosis in Solid Organ and Hematopoietic Stem Cell Transplant Recipients</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2023-01-25</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Current Fungal Infection Reports</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Springer Science+Business Media</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/s12281-023-00449-1</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/s12281-023-00449-1</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -857,75 +887,80 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>Division of Infectious Diseases, College of Medicine, University of Arizona, 1501 N Campbell Avenue, P.O. Box 245022, Tucson, AZ 85724, USA; Division of Infectious Diseases, College of Medicine, University of Arizona, 1501 N Campbell Avenue, P.O. Box 245022, Tucson, AZ 85724, USA</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4367051266</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Diagnostic Approach to Coccidioidomycosis in Solid Organ Transplant Recipients</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2023-04-26</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Journal of Fungi</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>Multidisciplinary Digital Publishing Institute</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>https://doi.org/10.3390/jof9050513</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37233224</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>https://doi.org/10.3390/jof9050513</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -939,75 +974,80 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>Division of Infectious Diseases, University of Arizona College of Medicine , Tucson, Arizona , USA; Department of Pathology, University of Arizona College of Medicine , Tucson, Arizona , USA; Division of Infectious Diseases, University of Arizona College of Medicine , Tucson, Arizona , USA; Fungus Testing Laboratory, Department of Pathology and Laboratory Medicine, University of Texas Health Science Center at San Antonio , San Antonio, Texas , USA; Division of Infectious Diseases, University of Arizona College of Medicine , Tucson, Arizona , USA</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4387431858</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>&lt;i&gt;Coccidioides&lt;/i&gt; species antifungal susceptibility testing: Experience from a large healthcare system in the endemic region</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2023-10-01</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Medical Mycology</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>Oxford University Press</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>https://doi.org/10.1093/mmy/myad104</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37804176</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>https://doi.org/10.1093/mmy/myad104</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1021,75 +1061,80 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>University of Arizona-Tucson , Tucson, Arizona; University of Arizona , Tucson, Arizona; Banner University of Arizona Tucson , Tucson, Arizona; University of Arizona-Tucson , Tucson, Arizona; University of Arizona-Tucson , Tucson, Arizona; University of Arizona , Tucson, Arizona</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4389030868</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>688. Risk of &lt;i&gt;Clostridioides difficile&lt;/i&gt; Infection and Antibiotic Associated Diarrhea in Patients Receiving Outpatient Parenteral Antimicrobial Therapy</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2023-11-27</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>Open Forum Infectious Diseases</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>Oxford University Press</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>https://doi.org/10.1093/ofid/ofad500.750</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>https://doi.org/10.1093/ofid/ofad500.750</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1103,75 +1148,80 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>Cambridge Health Alliance , Melrose, Massachusetts; University of Arizona , Tucson, Arizona; University of Arizona, College of Medicine , Tucson, tucson, Arizona; University of Arizona - Tucson , Tucson, Arizona; University of Arizona College of Medicine-Tucson , Tucson, Arizona; University of Arizona , Tucson, Arizona; University of Arizona , Tucson, Arizona</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4389031440</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>823. Clinical Outcomes of Coccidioidomycosis in Patients Requiring Intensive Care Unit Hospitalization</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2023-11-27</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>Open Forum Infectious Diseases</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>Oxford University Press</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>https://doi.org/10.1093/ofid/ofad500.868</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>https://doi.org/10.1093/ofid/ofad500.868</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>article</t>
         </is>

--- a/DOM_Banner/output/dept0713/Tirdad T Zangeneh_2023.xlsx
+++ b/DOM_Banner/output/dept0713/Tirdad T Zangeneh_2023.xlsx
@@ -507,7 +507,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>26</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -594,7 +594,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -768,7 +768,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -882,42 +882,42 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Tirdad T. Zangeneh, Mohanad Al-Obaidi</t>
+          <t>Mario Jaramillo, Ahmad Musmar, Aishan Shi, Shaden Al Momani, D. Alexander Perry, Tirdad T. Zangeneh</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Division of Infectious Diseases, College of Medicine, University of Arizona, 1501 N Campbell Avenue, P.O. Box 245022, Tucson, AZ 85724, USA; Division of Infectious Diseases, College of Medicine, University of Arizona, 1501 N Campbell Avenue, P.O. Box 245022, Tucson, AZ 85724, USA</t>
+          <t>University of Arizona-Tucson , Tucson, Arizona; University of Arizona , Tucson, Arizona; Banner University of Arizona Tucson , Tucson, Arizona; University of Arizona-Tucson , Tucson, Arizona; University of Arizona-Tucson , Tucson, Arizona; University of Arizona , Tucson, Arizona</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4367051266</t>
+          <t>https://openalex.org/W4389030868</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Diagnostic Approach to Coccidioidomycosis in Solid Organ Transplant Recipients</t>
+          <t>688. Risk of &lt;i&gt;Clostridioides difficile&lt;/i&gt; Infection and Antibiotic Associated Diarrhea in Patients Receiving Outpatient Parenteral Antimicrobial Therapy</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2023-04-26</t>
+          <t>2023-11-27</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Journal of Fungi</t>
+          <t>Open Forum Infectious Diseases</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Multidisciplinary Digital Publishing Institute</t>
+          <t>Oxford University Press</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3390/jof9050513</t>
+          <t>https://doi.org/10.1093/ofid/ofad500.750</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -952,12 +952,12 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37233224</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3390/jof9050513</t>
+          <t>https://doi.org/10.1093/ofid/ofad500.750</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
@@ -969,57 +969,57 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Tirdad T. Zangeneh, William Lainhart, Nathan P. Wiederhold, Mohanad Al-Obaidi</t>
+          <t>Tirdad T. Zangeneh, Mohanad Al-Obaidi</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Division of Infectious Diseases, University of Arizona College of Medicine , Tucson, Arizona , USA; Department of Pathology, University of Arizona College of Medicine , Tucson, Arizona , USA; Division of Infectious Diseases, University of Arizona College of Medicine , Tucson, Arizona , USA; Fungus Testing Laboratory, Department of Pathology and Laboratory Medicine, University of Texas Health Science Center at San Antonio , San Antonio, Texas , USA; Division of Infectious Diseases, University of Arizona College of Medicine , Tucson, Arizona , USA</t>
+          <t>Division of Infectious Diseases, College of Medicine, University of Arizona, 1501 N Campbell Avenue, P.O. Box 245022, Tucson, AZ 85724, USA; Division of Infectious Diseases, College of Medicine, University of Arizona, 1501 N Campbell Avenue, P.O. Box 245022, Tucson, AZ 85724, USA</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4387431858</t>
+          <t>https://openalex.org/W4367051266</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>&lt;i&gt;Coccidioides&lt;/i&gt; species antifungal susceptibility testing: Experience from a large healthcare system in the endemic region</t>
+          <t>Diagnostic Approach to Coccidioidomycosis in Solid Organ Transplant Recipients</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2023-10-01</t>
+          <t>2023-04-26</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Medical Mycology</t>
+          <t>Journal of Fungi</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Oxford University Press</t>
+          <t>Multidisciplinary Digital Publishing Institute</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1093/mmy/myad104</t>
+          <t>https://doi.org/10.3390/jof9050513</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>gold</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -1039,12 +1039,12 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37804176</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37233224</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1093/mmy/myad104</t>
+          <t>https://doi.org/10.3390/jof9050513</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
@@ -1056,32 +1056,32 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Mario Jaramillo, Ahmad Musmar, Aishan Shi, Shaden Al Momani, D. Alexander Perry, Tirdad T. Zangeneh</t>
+          <t>Tirdad T. Zangeneh, William Lainhart, Nathan P. Wiederhold, Mohanad Al-Obaidi</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>University of Arizona-Tucson , Tucson, Arizona; University of Arizona , Tucson, Arizona; Banner University of Arizona Tucson , Tucson, Arizona; University of Arizona-Tucson , Tucson, Arizona; University of Arizona-Tucson , Tucson, Arizona; University of Arizona , Tucson, Arizona</t>
+          <t>Division of Infectious Diseases, University of Arizona College of Medicine , Tucson, Arizona , USA; Department of Pathology, University of Arizona College of Medicine , Tucson, Arizona , USA; Division of Infectious Diseases, University of Arizona College of Medicine , Tucson, Arizona , USA; Fungus Testing Laboratory, Department of Pathology and Laboratory Medicine, University of Texas Health Science Center at San Antonio , San Antonio, Texas , USA; Division of Infectious Diseases, University of Arizona College of Medicine , Tucson, Arizona , USA</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4389030868</t>
+          <t>https://openalex.org/W4387431858</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>688. Risk of &lt;i&gt;Clostridioides difficile&lt;/i&gt; Infection and Antibiotic Associated Diarrhea in Patients Receiving Outpatient Parenteral Antimicrobial Therapy</t>
+          <t>&lt;i&gt;Coccidioides&lt;/i&gt; species antifungal susceptibility testing: Experience from a large healthcare system in the endemic region</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2023-11-27</t>
+          <t>2023-10-01</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Open Forum Infectious Diseases</t>
+          <t>Medical Mycology</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -1091,22 +1091,22 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1093/ofid/ofad500.750</t>
+          <t>https://doi.org/10.1093/mmy/myad104</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>gold</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1126,12 +1126,12 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37804176</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1093/ofid/ofad500.750</t>
+          <t>https://doi.org/10.1093/mmy/myad104</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
